--- a/Code/Results/Cases/Case_0_157/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_157/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007424293040539</v>
+        <v>1.041992806374259</v>
       </c>
       <c r="D2">
-        <v>1.014737475110426</v>
+        <v>1.042311102517584</v>
       </c>
       <c r="E2">
-        <v>1.021196383194603</v>
+        <v>1.04950866930966</v>
       </c>
       <c r="F2">
-        <v>1.028420805531461</v>
+        <v>1.058736063525053</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051778586980387</v>
+        <v>1.039504644312983</v>
       </c>
       <c r="J2">
-        <v>1.029385189879946</v>
+        <v>1.047071025778354</v>
       </c>
       <c r="K2">
-        <v>1.025995241741839</v>
+        <v>1.045088148838613</v>
       </c>
       <c r="L2">
-        <v>1.032368110363122</v>
+        <v>1.052265531255145</v>
       </c>
       <c r="M2">
-        <v>1.039497899049642</v>
+        <v>1.061467483666029</v>
       </c>
       <c r="N2">
-        <v>1.013398708632081</v>
+        <v>1.019547718600481</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013044991515605</v>
+        <v>1.043148121805795</v>
       </c>
       <c r="D3">
-        <v>1.019438616145721</v>
+        <v>1.043321539733336</v>
       </c>
       <c r="E3">
-        <v>1.025971049122673</v>
+        <v>1.050540462959215</v>
       </c>
       <c r="F3">
-        <v>1.033642001173699</v>
+        <v>1.059867459277227</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053482581432015</v>
+        <v>1.039750573599286</v>
       </c>
       <c r="J3">
-        <v>1.03318624546172</v>
+        <v>1.047871573272498</v>
       </c>
       <c r="K3">
-        <v>1.02982867392678</v>
+        <v>1.045908868592163</v>
       </c>
       <c r="L3">
-        <v>1.036282069108159</v>
+        <v>1.053109018329469</v>
       </c>
       <c r="M3">
-        <v>1.04386178763004</v>
+        <v>1.062412167181153</v>
       </c>
       <c r="N3">
-        <v>1.014685284777792</v>
+        <v>1.019816214211049</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C4">
-        <v>1.016593105641217</v>
+        <v>1.043895304716095</v>
       </c>
       <c r="D4">
-        <v>1.022411448583401</v>
+        <v>1.043975288785779</v>
       </c>
       <c r="E4">
-        <v>1.028991103073883</v>
+        <v>1.051208106379966</v>
       </c>
       <c r="F4">
-        <v>1.036944013321998</v>
+        <v>1.060599546329461</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054542232779968</v>
+        <v>1.039907633106465</v>
       </c>
       <c r="J4">
-        <v>1.035581675604731</v>
+        <v>1.048388663739822</v>
       </c>
       <c r="K4">
-        <v>1.032246707297481</v>
+        <v>1.046439250706199</v>
       </c>
       <c r="L4">
-        <v>1.038751782649194</v>
+        <v>1.053654210092169</v>
       </c>
       <c r="M4">
-        <v>1.046616101409687</v>
+        <v>1.063022852724481</v>
       </c>
       <c r="N4">
-        <v>1.015495800505798</v>
+        <v>1.019989555302213</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018064370766405</v>
+        <v>1.044209329887426</v>
       </c>
       <c r="D5">
-        <v>1.023645357644231</v>
+        <v>1.044250108266513</v>
       </c>
       <c r="E5">
-        <v>1.030244785814485</v>
+        <v>1.051488785098123</v>
       </c>
       <c r="F5">
-        <v>1.038314635315168</v>
+        <v>1.060907315967653</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054977727245756</v>
+        <v>1.039973164601963</v>
       </c>
       <c r="J5">
-        <v>1.036573955139079</v>
+        <v>1.048605829480958</v>
       </c>
       <c r="K5">
-        <v>1.033248877904105</v>
+        <v>1.046662061395726</v>
       </c>
       <c r="L5">
-        <v>1.039775584671392</v>
+        <v>1.053883265356826</v>
       </c>
       <c r="M5">
-        <v>1.047758049416039</v>
+        <v>1.06327944472177</v>
       </c>
       <c r="N5">
-        <v>1.01583147223957</v>
+        <v>1.020062333795239</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018310234001153</v>
+        <v>1.044262050823873</v>
       </c>
       <c r="D6">
-        <v>1.023851624736832</v>
+        <v>1.044296250705476</v>
       </c>
       <c r="E6">
-        <v>1.030454368590417</v>
+        <v>1.051535912387333</v>
       </c>
       <c r="F6">
-        <v>1.038543761188754</v>
+        <v>1.060958991876702</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05505027160617</v>
+        <v>1.039984138523851</v>
       </c>
       <c r="J6">
-        <v>1.036739714165863</v>
+        <v>1.048642279731539</v>
       </c>
       <c r="K6">
-        <v>1.033416320281073</v>
+        <v>1.046699462807549</v>
       </c>
       <c r="L6">
-        <v>1.039946653690063</v>
+        <v>1.053921716351071</v>
       </c>
       <c r="M6">
-        <v>1.047948869507598</v>
+        <v>1.063322519440729</v>
       </c>
       <c r="N6">
-        <v>1.01588754116964</v>
+        <v>1.020074548109396</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016612843605051</v>
+        <v>1.043899501089927</v>
       </c>
       <c r="D7">
-        <v>1.022427997626895</v>
+        <v>1.043978961001867</v>
       </c>
       <c r="E7">
-        <v>1.029007916633307</v>
+        <v>1.051211856816553</v>
       </c>
       <c r="F7">
-        <v>1.036962395605766</v>
+        <v>1.060603658760702</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054548090722762</v>
+        <v>1.039908510691732</v>
       </c>
       <c r="J7">
-        <v>1.035594991734706</v>
+        <v>1.048391566379345</v>
       </c>
       <c r="K7">
-        <v>1.032260154074248</v>
+        <v>1.046442228549326</v>
       </c>
       <c r="L7">
-        <v>1.038765518829928</v>
+        <v>1.053657271302527</v>
       </c>
       <c r="M7">
-        <v>1.046631422074246</v>
+        <v>1.063026281869575</v>
       </c>
       <c r="N7">
-        <v>1.015500305437664</v>
+        <v>1.019990528141625</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009342798447496</v>
+        <v>1.042383330790915</v>
       </c>
       <c r="D8">
-        <v>1.016340981084071</v>
+        <v>1.042652599573664</v>
       </c>
       <c r="E8">
-        <v>1.022824814561172</v>
+        <v>1.049857368282253</v>
       </c>
       <c r="F8">
-        <v>1.030201634380924</v>
+        <v>1.05911842474552</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052363538335088</v>
+        <v>1.03958818653827</v>
       </c>
       <c r="J8">
-        <v>1.030683414109693</v>
+        <v>1.047341764793549</v>
       </c>
       <c r="K8">
-        <v>1.027304060943068</v>
+        <v>1.045365655684404</v>
       </c>
       <c r="L8">
-        <v>1.033704236417461</v>
+        <v>1.052550716344243</v>
       </c>
       <c r="M8">
-        <v>1.040987474038893</v>
+        <v>1.061786865925042</v>
       </c>
       <c r="N8">
-        <v>1.013838186057997</v>
+        <v>1.019638539496811</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9958074681368017</v>
+        <v>1.039708650855793</v>
       </c>
       <c r="D9">
-        <v>1.005052745044852</v>
+        <v>1.04031481252085</v>
       </c>
       <c r="E9">
-        <v>1.011364244539269</v>
+        <v>1.047470594093767</v>
       </c>
       <c r="F9">
-        <v>1.017666133565217</v>
+        <v>1.056501210507586</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048170677862465</v>
+        <v>1.03900785543467</v>
       </c>
       <c r="J9">
-        <v>1.021509149158521</v>
+        <v>1.045484831204758</v>
       </c>
       <c r="K9">
-        <v>1.018064373477962</v>
+        <v>1.043463378773376</v>
       </c>
       <c r="L9">
-        <v>1.024275596788033</v>
+        <v>1.05059620181176</v>
       </c>
       <c r="M9">
-        <v>1.030478947938408</v>
+        <v>1.059598329728267</v>
       </c>
       <c r="N9">
-        <v>1.01073154344755</v>
+        <v>1.019015271457911</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9862296706719861</v>
+        <v>1.037923434120079</v>
       </c>
       <c r="D10">
-        <v>0.9970995910823988</v>
+        <v>1.038755871246676</v>
       </c>
       <c r="E10">
-        <v>1.003293715749066</v>
+        <v>1.045879381574178</v>
       </c>
       <c r="F10">
-        <v>1.008835186916048</v>
+        <v>1.054756327795801</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045122521757894</v>
+        <v>1.038610288404494</v>
       </c>
       <c r="J10">
-        <v>1.015000490380263</v>
+        <v>1.04424209984683</v>
       </c>
       <c r="K10">
-        <v>1.011521411520711</v>
+        <v>1.042191652228365</v>
       </c>
       <c r="L10">
-        <v>1.017603754706774</v>
+        <v>1.049290049698313</v>
       </c>
       <c r="M10">
-        <v>1.023046730868215</v>
+        <v>1.058136224047604</v>
       </c>
       <c r="N10">
-        <v>1.008526642923796</v>
+        <v>1.018597721231473</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9819341514950164</v>
+        <v>1.037149898622302</v>
       </c>
       <c r="D11">
-        <v>0.9935419729340054</v>
+        <v>1.038080724989075</v>
       </c>
       <c r="E11">
-        <v>0.999684573672991</v>
+        <v>1.045190353106145</v>
       </c>
       <c r="F11">
-        <v>1.004885024832682</v>
+        <v>1.054000745829484</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043737147249984</v>
+        <v>1.038435602952328</v>
       </c>
       <c r="J11">
-        <v>1.012078294103649</v>
+        <v>1.043702841706964</v>
       </c>
       <c r="K11">
-        <v>1.008586714553154</v>
+        <v>1.041640132051248</v>
       </c>
       <c r="L11">
-        <v>1.01461244092497</v>
+        <v>1.048723717555012</v>
       </c>
       <c r="M11">
-        <v>1.019715401016626</v>
+        <v>1.057502375750612</v>
       </c>
       <c r="N11">
-        <v>1.007536599256935</v>
+        <v>1.018416431730334</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9803147420858341</v>
+        <v>1.036862492432356</v>
       </c>
       <c r="D12">
-        <v>0.9922022431678285</v>
+        <v>1.037829927557086</v>
       </c>
       <c r="E12">
-        <v>0.9983255904072922</v>
+        <v>1.044934412929149</v>
       </c>
       <c r="F12">
-        <v>1.003397476911684</v>
+        <v>1.053720082517481</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04321219674709</v>
+        <v>1.038370335725503</v>
       </c>
       <c r="J12">
-        <v>1.010976231766526</v>
+        <v>1.043502363968446</v>
       </c>
       <c r="K12">
-        <v>1.007480376385059</v>
+        <v>1.041435143730343</v>
       </c>
       <c r="L12">
-        <v>1.013484939923233</v>
+        <v>1.048513241606165</v>
       </c>
       <c r="M12">
-        <v>1.018459874809582</v>
+        <v>1.05726682311943</v>
       </c>
       <c r="N12">
-        <v>1.007163212319657</v>
+        <v>1.018349019264007</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9806632178420832</v>
+        <v>1.0369241457151</v>
       </c>
       <c r="D13">
-        <v>0.9924904665136233</v>
+        <v>1.037883725288425</v>
       </c>
       <c r="E13">
-        <v>0.9986179490774186</v>
+        <v>1.044989313175833</v>
       </c>
       <c r="F13">
-        <v>1.003717501072049</v>
+        <v>1.053780286063524</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04332527812682</v>
+        <v>1.038384353024201</v>
       </c>
       <c r="J13">
-        <v>1.011213397736057</v>
+        <v>1.043545374978467</v>
       </c>
       <c r="K13">
-        <v>1.007718442663489</v>
+        <v>1.041479120279827</v>
       </c>
       <c r="L13">
-        <v>1.013727551897419</v>
+        <v>1.048558394628186</v>
       </c>
       <c r="M13">
-        <v>1.018730028703858</v>
+        <v>1.05731735509397</v>
       </c>
       <c r="N13">
-        <v>1.007243566073765</v>
+        <v>1.01836348279548</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9818007870985866</v>
+        <v>1.037126143193009</v>
       </c>
       <c r="D14">
-        <v>0.9934316103258745</v>
+        <v>1.038059994368378</v>
       </c>
       <c r="E14">
-        <v>0.9995726219757259</v>
+        <v>1.045169197104612</v>
       </c>
       <c r="F14">
-        <v>1.004762485377987</v>
+        <v>1.053977546252021</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043693969208259</v>
+        <v>1.038430215722137</v>
       </c>
       <c r="J14">
-        <v>1.011987542725305</v>
+        <v>1.043686273694099</v>
       </c>
       <c r="K14">
-        <v>1.008495602150218</v>
+        <v>1.041623190292619</v>
       </c>
       <c r="L14">
-        <v>1.014519581971666</v>
+        <v>1.048706321897794</v>
       </c>
       <c r="M14">
-        <v>1.019611995385179</v>
+        <v>1.057482907210369</v>
       </c>
       <c r="N14">
-        <v>1.007505852097279</v>
+        <v>1.018410860895036</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9824984690819173</v>
+        <v>1.037250589762831</v>
       </c>
       <c r="D15">
-        <v>0.994009022151679</v>
+        <v>1.038168597148205</v>
       </c>
       <c r="E15">
-        <v>1.000158353937284</v>
+        <v>1.045280028930539</v>
       </c>
       <c r="F15">
-        <v>1.005403606066709</v>
+        <v>1.054099083867038</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043919742701197</v>
+        <v>1.038458422715017</v>
       </c>
       <c r="J15">
-        <v>1.012462283516992</v>
+        <v>1.043773063058248</v>
       </c>
       <c r="K15">
-        <v>1.008972249413614</v>
+        <v>1.041711939440815</v>
       </c>
       <c r="L15">
-        <v>1.015005373551407</v>
+        <v>1.048797449510106</v>
       </c>
       <c r="M15">
-        <v>1.020152967422286</v>
+        <v>1.05758489431122</v>
       </c>
       <c r="N15">
-        <v>1.007666697155018</v>
+        <v>1.018440042362859</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9865114941984141</v>
+        <v>1.037974759910918</v>
       </c>
       <c r="D16">
-        <v>0.9973332025488496</v>
+        <v>1.038800675996491</v>
       </c>
       <c r="E16">
-        <v>1.003530731099619</v>
+        <v>1.045925109566202</v>
       </c>
       <c r="F16">
-        <v>1.009094576277932</v>
+        <v>1.054806472426758</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045213041147527</v>
+        <v>1.038621828246933</v>
       </c>
       <c r="J16">
-        <v>1.015192152986996</v>
+        <v>1.044277864386185</v>
       </c>
       <c r="K16">
-        <v>1.011713954487884</v>
+        <v>1.042228236737977</v>
       </c>
       <c r="L16">
-        <v>1.017800037139747</v>
+        <v>1.049327619220458</v>
       </c>
       <c r="M16">
-        <v>1.023265342977963</v>
+        <v>1.058178274655456</v>
       </c>
       <c r="N16">
-        <v>1.008591576982586</v>
+        <v>1.018609742527796</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9889879885329401</v>
+        <v>1.038428870916637</v>
       </c>
       <c r="D17">
-        <v>0.9993871007472132</v>
+        <v>1.039197131124644</v>
       </c>
       <c r="E17">
-        <v>1.005614667587349</v>
+        <v>1.04632974484669</v>
       </c>
       <c r="F17">
-        <v>1.011375123659128</v>
+        <v>1.05525018811862</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046006403885728</v>
+        <v>1.038723649025848</v>
       </c>
       <c r="J17">
-        <v>1.016876019867587</v>
+        <v>1.044594205141945</v>
       </c>
       <c r="K17">
-        <v>1.013405884848265</v>
+        <v>1.042551867112498</v>
       </c>
       <c r="L17">
-        <v>1.019524962356775</v>
+        <v>1.049659976697514</v>
       </c>
       <c r="M17">
-        <v>1.025186602651188</v>
+        <v>1.058550285845212</v>
       </c>
       <c r="N17">
-        <v>1.009162049091841</v>
+        <v>1.018716060277721</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9904182946443842</v>
+        <v>1.038693695662799</v>
       </c>
       <c r="D18">
-        <v>1.000574204198016</v>
+        <v>1.03942836571415</v>
       </c>
       <c r="E18">
-        <v>1.006819225054225</v>
+        <v>1.046565759605325</v>
       </c>
       <c r="F18">
-        <v>1.012693236140028</v>
+        <v>1.055508996551471</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046462876410938</v>
+        <v>1.038782794662157</v>
       </c>
       <c r="J18">
-        <v>1.017848239226582</v>
+        <v>1.044778610719032</v>
       </c>
       <c r="K18">
-        <v>1.014383033485132</v>
+        <v>1.042740552874267</v>
       </c>
       <c r="L18">
-        <v>1.020521278881163</v>
+        <v>1.049853761951955</v>
       </c>
       <c r="M18">
-        <v>1.026296406668303</v>
+        <v>1.058767201677963</v>
       </c>
       <c r="N18">
-        <v>1.009491413464274</v>
+        <v>1.018778026601828</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9909036307905432</v>
+        <v>1.03878398554326</v>
       </c>
       <c r="D19">
-        <v>1.000977160605147</v>
+        <v>1.039507208897384</v>
       </c>
       <c r="E19">
-        <v>1.007228121792368</v>
+        <v>1.046646234199933</v>
       </c>
       <c r="F19">
-        <v>1.013140665136494</v>
+        <v>1.055597242991021</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046617471134406</v>
+        <v>1.038802920296688</v>
       </c>
       <c r="J19">
-        <v>1.018178082337772</v>
+        <v>1.044841469516942</v>
       </c>
       <c r="K19">
-        <v>1.014714595283873</v>
+        <v>1.042804875898571</v>
       </c>
       <c r="L19">
-        <v>1.020859363618166</v>
+        <v>1.049919825318828</v>
       </c>
       <c r="M19">
-        <v>1.026673016008284</v>
+        <v>1.058841152187257</v>
       </c>
       <c r="N19">
-        <v>1.009603154209666</v>
+        <v>1.018799147548503</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.98872376297656</v>
+        <v>1.038380154341733</v>
       </c>
       <c r="D20">
-        <v>0.9991678725096551</v>
+        <v>1.039154596383066</v>
       </c>
       <c r="E20">
-        <v>1.005392223506679</v>
+        <v>1.046286331539503</v>
       </c>
       <c r="F20">
-        <v>1.011131702325414</v>
+        <v>1.055202581985815</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045921937009364</v>
+        <v>1.038712749931987</v>
       </c>
       <c r="J20">
-        <v>1.016696393299894</v>
+        <v>1.044560276222266</v>
       </c>
       <c r="K20">
-        <v>1.013225369674439</v>
+        <v>1.042517153160884</v>
       </c>
       <c r="L20">
-        <v>1.019340915235574</v>
+        <v>1.049624325466966</v>
       </c>
       <c r="M20">
-        <v>1.024981598115024</v>
+        <v>1.058510380019123</v>
       </c>
       <c r="N20">
-        <v>1.009101195017956</v>
+        <v>1.018704658254517</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9814664735174954</v>
+        <v>1.037066662211723</v>
       </c>
       <c r="D21">
-        <v>0.9931549812387915</v>
+        <v>1.038008088023007</v>
       </c>
       <c r="E21">
-        <v>0.9992920121750153</v>
+        <v>1.045116225897561</v>
       </c>
       <c r="F21">
-        <v>1.004455334514193</v>
+        <v>1.053919458232028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043585689295132</v>
+        <v>1.038416720827477</v>
       </c>
       <c r="J21">
-        <v>1.011760043999388</v>
+        <v>1.043644787324046</v>
       </c>
       <c r="K21">
-        <v>1.008267205465292</v>
+        <v>1.041580768837222</v>
       </c>
       <c r="L21">
-        <v>1.01428681002839</v>
+        <v>1.048662764184582</v>
       </c>
       <c r="M21">
-        <v>1.019352787991806</v>
+        <v>1.057434159369503</v>
       </c>
       <c r="N21">
-        <v>1.007428773965259</v>
+        <v>1.018396911255703</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9767645686809265</v>
+        <v>1.036240349975631</v>
       </c>
       <c r="D22">
-        <v>0.9892680631074361</v>
+        <v>1.037287127839744</v>
       </c>
       <c r="E22">
-        <v>0.9953495203260909</v>
+        <v>1.044380508574765</v>
       </c>
       <c r="F22">
-        <v>1.000139555607418</v>
+        <v>1.053112669091582</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042056560239777</v>
+        <v>1.038228389543034</v>
       </c>
       <c r="J22">
-        <v>1.008559582575095</v>
+        <v>1.043068180270264</v>
       </c>
       <c r="K22">
-        <v>1.00505516240274</v>
+        <v>1.040991279084689</v>
       </c>
       <c r="L22">
-        <v>1.011013670512813</v>
+        <v>1.048057526808205</v>
       </c>
       <c r="M22">
-        <v>1.015708248380846</v>
+        <v>1.05675684159922</v>
       </c>
       <c r="N22">
-        <v>1.006344431636977</v>
+        <v>1.018202993289584</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9792708791301999</v>
+        <v>1.036678438656171</v>
       </c>
       <c r="D23">
-        <v>0.9913390935270507</v>
+        <v>1.037669332705825</v>
       </c>
       <c r="E23">
-        <v>0.9974500786847762</v>
+        <v>1.044770528957219</v>
       </c>
       <c r="F23">
-        <v>1.002439092659894</v>
+        <v>1.053540367275746</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042873076664449</v>
+        <v>1.038328436702887</v>
       </c>
       <c r="J23">
-        <v>1.010265746840477</v>
+        <v>1.043373945938074</v>
       </c>
       <c r="K23">
-        <v>1.006767258912877</v>
+        <v>1.041303849917729</v>
       </c>
       <c r="L23">
-        <v>1.012758232710477</v>
+        <v>1.048378437971846</v>
       </c>
       <c r="M23">
-        <v>1.017650689865675</v>
+        <v>1.057115962980214</v>
       </c>
       <c r="N23">
-        <v>1.006922494001685</v>
+        <v>1.018305833256347</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9888431988696778</v>
+        <v>1.038402167420527</v>
       </c>
       <c r="D24">
-        <v>0.9992669659138453</v>
+        <v>1.039173816035497</v>
       </c>
       <c r="E24">
-        <v>1.005492770217683</v>
+        <v>1.046305948150645</v>
       </c>
       <c r="F24">
-        <v>1.011241731220544</v>
+        <v>1.055224093158242</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045960123331402</v>
+        <v>1.038717675519301</v>
       </c>
       <c r="J24">
-        <v>1.016777589492508</v>
+        <v>1.044575607582131</v>
       </c>
       <c r="K24">
-        <v>1.013306966692625</v>
+        <v>1.042532839155543</v>
       </c>
       <c r="L24">
-        <v>1.019424108427311</v>
+        <v>1.049640434949445</v>
       </c>
       <c r="M24">
-        <v>1.025074264238692</v>
+        <v>1.058528411966328</v>
       </c>
       <c r="N24">
-        <v>1.009128702782221</v>
+        <v>1.018709810483197</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.999399101119944</v>
+        <v>1.040400483134435</v>
       </c>
       <c r="D25">
-        <v>1.008042509537667</v>
+        <v>1.040919257391312</v>
       </c>
       <c r="E25">
-        <v>1.014398964466303</v>
+        <v>1.048087635078025</v>
       </c>
       <c r="F25">
-        <v>1.02098604036032</v>
+        <v>1.057177832698101</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049297482784709</v>
+        <v>1.039159767007103</v>
       </c>
       <c r="J25">
-        <v>1.023946704845424</v>
+        <v>1.045965732092436</v>
       </c>
       <c r="K25">
-        <v>1.020517245752796</v>
+        <v>1.043955784739794</v>
       </c>
       <c r="L25">
-        <v>1.026777792798203</v>
+        <v>1.051102042017098</v>
       </c>
       <c r="M25">
-        <v>1.033267081489211</v>
+        <v>1.06016465912204</v>
       </c>
       <c r="N25">
-        <v>1.011557150004154</v>
+        <v>1.019176759808525</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_157/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_157/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041992806374259</v>
+        <v>1.007424293040538</v>
       </c>
       <c r="D2">
-        <v>1.042311102517584</v>
+        <v>1.014737475110425</v>
       </c>
       <c r="E2">
-        <v>1.04950866930966</v>
+        <v>1.021196383194603</v>
       </c>
       <c r="F2">
-        <v>1.058736063525053</v>
+        <v>1.028420805531461</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039504644312983</v>
+        <v>1.051778586980387</v>
       </c>
       <c r="J2">
-        <v>1.047071025778354</v>
+        <v>1.029385189879946</v>
       </c>
       <c r="K2">
-        <v>1.045088148838613</v>
+        <v>1.025995241741838</v>
       </c>
       <c r="L2">
-        <v>1.052265531255145</v>
+        <v>1.032368110363121</v>
       </c>
       <c r="M2">
-        <v>1.061467483666029</v>
+        <v>1.039497899049642</v>
       </c>
       <c r="N2">
-        <v>1.019547718600481</v>
+        <v>1.013398708632081</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043148121805795</v>
+        <v>1.013044991515606</v>
       </c>
       <c r="D3">
-        <v>1.043321539733336</v>
+        <v>1.019438616145722</v>
       </c>
       <c r="E3">
-        <v>1.050540462959215</v>
+        <v>1.025971049122673</v>
       </c>
       <c r="F3">
-        <v>1.059867459277227</v>
+        <v>1.0336420011737</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039750573599286</v>
+        <v>1.053482581432015</v>
       </c>
       <c r="J3">
-        <v>1.047871573272498</v>
+        <v>1.033186245461721</v>
       </c>
       <c r="K3">
-        <v>1.045908868592163</v>
+        <v>1.029828673926781</v>
       </c>
       <c r="L3">
-        <v>1.053109018329469</v>
+        <v>1.03628206910816</v>
       </c>
       <c r="M3">
-        <v>1.062412167181153</v>
+        <v>1.043861787630041</v>
       </c>
       <c r="N3">
-        <v>1.019816214211049</v>
+        <v>1.014685284777793</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043895304716095</v>
+        <v>1.016593105641217</v>
       </c>
       <c r="D4">
-        <v>1.043975288785779</v>
+        <v>1.022411448583401</v>
       </c>
       <c r="E4">
-        <v>1.051208106379966</v>
+        <v>1.028991103073882</v>
       </c>
       <c r="F4">
-        <v>1.060599546329461</v>
+        <v>1.036944013321998</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039907633106465</v>
+        <v>1.054542232779968</v>
       </c>
       <c r="J4">
-        <v>1.048388663739822</v>
+        <v>1.03558167560473</v>
       </c>
       <c r="K4">
-        <v>1.046439250706199</v>
+        <v>1.03224670729748</v>
       </c>
       <c r="L4">
-        <v>1.053654210092169</v>
+        <v>1.038751782649194</v>
       </c>
       <c r="M4">
-        <v>1.063022852724481</v>
+        <v>1.046616101409687</v>
       </c>
       <c r="N4">
-        <v>1.019989555302213</v>
+        <v>1.015495800505798</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044209329887426</v>
+        <v>1.018064370766404</v>
       </c>
       <c r="D5">
-        <v>1.044250108266513</v>
+        <v>1.023645357644231</v>
       </c>
       <c r="E5">
-        <v>1.051488785098123</v>
+        <v>1.030244785814484</v>
       </c>
       <c r="F5">
-        <v>1.060907315967653</v>
+        <v>1.038314635315167</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039973164601963</v>
+        <v>1.054977727245756</v>
       </c>
       <c r="J5">
-        <v>1.048605829480958</v>
+        <v>1.036573955139079</v>
       </c>
       <c r="K5">
-        <v>1.046662061395726</v>
+        <v>1.033248877904104</v>
       </c>
       <c r="L5">
-        <v>1.053883265356826</v>
+        <v>1.039775584671391</v>
       </c>
       <c r="M5">
-        <v>1.06327944472177</v>
+        <v>1.047758049416039</v>
       </c>
       <c r="N5">
-        <v>1.020062333795239</v>
+        <v>1.01583147223957</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044262050823873</v>
+        <v>1.018310234001153</v>
       </c>
       <c r="D6">
-        <v>1.044296250705476</v>
+        <v>1.023851624736832</v>
       </c>
       <c r="E6">
-        <v>1.051535912387333</v>
+        <v>1.030454368590418</v>
       </c>
       <c r="F6">
-        <v>1.060958991876702</v>
+        <v>1.038543761188754</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039984138523851</v>
+        <v>1.05505027160617</v>
       </c>
       <c r="J6">
-        <v>1.048642279731539</v>
+        <v>1.036739714165863</v>
       </c>
       <c r="K6">
-        <v>1.046699462807549</v>
+        <v>1.033416320281074</v>
       </c>
       <c r="L6">
-        <v>1.053921716351071</v>
+        <v>1.039946653690063</v>
       </c>
       <c r="M6">
-        <v>1.063322519440729</v>
+        <v>1.047948869507598</v>
       </c>
       <c r="N6">
-        <v>1.020074548109396</v>
+        <v>1.01588754116964</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043899501089927</v>
+        <v>1.016612843605051</v>
       </c>
       <c r="D7">
-        <v>1.043978961001867</v>
+        <v>1.022427997626895</v>
       </c>
       <c r="E7">
-        <v>1.051211856816553</v>
+        <v>1.029007916633307</v>
       </c>
       <c r="F7">
-        <v>1.060603658760702</v>
+        <v>1.036962395605766</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039908510691732</v>
+        <v>1.054548090722762</v>
       </c>
       <c r="J7">
-        <v>1.048391566379345</v>
+        <v>1.035594991734706</v>
       </c>
       <c r="K7">
-        <v>1.046442228549326</v>
+        <v>1.032260154074248</v>
       </c>
       <c r="L7">
-        <v>1.053657271302527</v>
+        <v>1.038765518829929</v>
       </c>
       <c r="M7">
-        <v>1.063026281869575</v>
+        <v>1.046631422074246</v>
       </c>
       <c r="N7">
-        <v>1.019990528141625</v>
+        <v>1.015500305437664</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042383330790915</v>
+        <v>1.009342798447497</v>
       </c>
       <c r="D8">
-        <v>1.042652599573664</v>
+        <v>1.016340981084071</v>
       </c>
       <c r="E8">
-        <v>1.049857368282253</v>
+        <v>1.022824814561173</v>
       </c>
       <c r="F8">
-        <v>1.05911842474552</v>
+        <v>1.030201634380924</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03958818653827</v>
+        <v>1.052363538335088</v>
       </c>
       <c r="J8">
-        <v>1.047341764793549</v>
+        <v>1.030683414109693</v>
       </c>
       <c r="K8">
-        <v>1.045365655684404</v>
+        <v>1.027304060943068</v>
       </c>
       <c r="L8">
-        <v>1.052550716344243</v>
+        <v>1.033704236417461</v>
       </c>
       <c r="M8">
-        <v>1.061786865925042</v>
+        <v>1.040987474038894</v>
       </c>
       <c r="N8">
-        <v>1.019638539496811</v>
+        <v>1.013838186057997</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039708650855793</v>
+        <v>0.9958074681368027</v>
       </c>
       <c r="D9">
-        <v>1.04031481252085</v>
+        <v>1.005052745044853</v>
       </c>
       <c r="E9">
-        <v>1.047470594093767</v>
+        <v>1.01136424453927</v>
       </c>
       <c r="F9">
-        <v>1.056501210507586</v>
+        <v>1.017666133565218</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03900785543467</v>
+        <v>1.048170677862465</v>
       </c>
       <c r="J9">
-        <v>1.045484831204758</v>
+        <v>1.021509149158522</v>
       </c>
       <c r="K9">
-        <v>1.043463378773376</v>
+        <v>1.018064373477962</v>
       </c>
       <c r="L9">
-        <v>1.05059620181176</v>
+        <v>1.024275596788034</v>
       </c>
       <c r="M9">
-        <v>1.059598329728267</v>
+        <v>1.030478947938409</v>
       </c>
       <c r="N9">
-        <v>1.019015271457911</v>
+        <v>1.01073154344755</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037923434120079</v>
+        <v>0.986229670671987</v>
       </c>
       <c r="D10">
-        <v>1.038755871246676</v>
+        <v>0.9970995910823998</v>
       </c>
       <c r="E10">
-        <v>1.045879381574178</v>
+        <v>1.003293715749067</v>
       </c>
       <c r="F10">
-        <v>1.054756327795801</v>
+        <v>1.008835186916049</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038610288404494</v>
+        <v>1.045122521757895</v>
       </c>
       <c r="J10">
-        <v>1.04424209984683</v>
+        <v>1.015000490380264</v>
       </c>
       <c r="K10">
-        <v>1.042191652228365</v>
+        <v>1.011521411520712</v>
       </c>
       <c r="L10">
-        <v>1.049290049698313</v>
+        <v>1.017603754706774</v>
       </c>
       <c r="M10">
-        <v>1.058136224047604</v>
+        <v>1.023046730868215</v>
       </c>
       <c r="N10">
-        <v>1.018597721231473</v>
+        <v>1.008526642923796</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037149898622302</v>
+        <v>0.9819341514950163</v>
       </c>
       <c r="D11">
-        <v>1.038080724989075</v>
+        <v>0.9935419729340054</v>
       </c>
       <c r="E11">
-        <v>1.045190353106145</v>
+        <v>0.9996845736729911</v>
       </c>
       <c r="F11">
-        <v>1.054000745829484</v>
+        <v>1.004885024832682</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038435602952328</v>
+        <v>1.043737147249984</v>
       </c>
       <c r="J11">
-        <v>1.043702841706964</v>
+        <v>1.012078294103649</v>
       </c>
       <c r="K11">
-        <v>1.041640132051248</v>
+        <v>1.008586714553154</v>
       </c>
       <c r="L11">
-        <v>1.048723717555012</v>
+        <v>1.01461244092497</v>
       </c>
       <c r="M11">
-        <v>1.057502375750612</v>
+        <v>1.019715401016626</v>
       </c>
       <c r="N11">
-        <v>1.018416431730334</v>
+        <v>1.007536599256935</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036862492432356</v>
+        <v>0.980314742085834</v>
       </c>
       <c r="D12">
-        <v>1.037829927557086</v>
+        <v>0.9922022431678288</v>
       </c>
       <c r="E12">
-        <v>1.044934412929149</v>
+        <v>0.9983255904072922</v>
       </c>
       <c r="F12">
-        <v>1.053720082517481</v>
+        <v>1.003397476911684</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038370335725503</v>
+        <v>1.04321219674709</v>
       </c>
       <c r="J12">
-        <v>1.043502363968446</v>
+        <v>1.010976231766526</v>
       </c>
       <c r="K12">
-        <v>1.041435143730343</v>
+        <v>1.007480376385059</v>
       </c>
       <c r="L12">
-        <v>1.048513241606165</v>
+        <v>1.013484939923234</v>
       </c>
       <c r="M12">
-        <v>1.05726682311943</v>
+        <v>1.018459874809582</v>
       </c>
       <c r="N12">
-        <v>1.018349019264007</v>
+        <v>1.007163212319657</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0369241457151</v>
+        <v>0.9806632178420839</v>
       </c>
       <c r="D13">
-        <v>1.037883725288425</v>
+        <v>0.992490466513624</v>
       </c>
       <c r="E13">
-        <v>1.044989313175833</v>
+        <v>0.9986179490774191</v>
       </c>
       <c r="F13">
-        <v>1.053780286063524</v>
+        <v>1.00371750107205</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038384353024201</v>
+        <v>1.043325278126821</v>
       </c>
       <c r="J13">
-        <v>1.043545374978467</v>
+        <v>1.011213397736058</v>
       </c>
       <c r="K13">
-        <v>1.041479120279827</v>
+        <v>1.00771844266349</v>
       </c>
       <c r="L13">
-        <v>1.048558394628186</v>
+        <v>1.01372755189742</v>
       </c>
       <c r="M13">
-        <v>1.05731735509397</v>
+        <v>1.018730028703859</v>
       </c>
       <c r="N13">
-        <v>1.01836348279548</v>
+        <v>1.007243566073765</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037126143193009</v>
+        <v>0.9818007870985876</v>
       </c>
       <c r="D14">
-        <v>1.038059994368378</v>
+        <v>0.9934316103258755</v>
       </c>
       <c r="E14">
-        <v>1.045169197104612</v>
+        <v>0.9995726219757266</v>
       </c>
       <c r="F14">
-        <v>1.053977546252021</v>
+        <v>1.004762485377987</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038430215722137</v>
+        <v>1.04369396920826</v>
       </c>
       <c r="J14">
-        <v>1.043686273694099</v>
+        <v>1.011987542725306</v>
       </c>
       <c r="K14">
-        <v>1.041623190292619</v>
+        <v>1.008495602150219</v>
       </c>
       <c r="L14">
-        <v>1.048706321897794</v>
+        <v>1.014519581971667</v>
       </c>
       <c r="M14">
-        <v>1.057482907210369</v>
+        <v>1.019611995385179</v>
       </c>
       <c r="N14">
-        <v>1.018410860895036</v>
+        <v>1.00750585209728</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037250589762831</v>
+        <v>0.982498469081917</v>
       </c>
       <c r="D15">
-        <v>1.038168597148205</v>
+        <v>0.9940090221516787</v>
       </c>
       <c r="E15">
-        <v>1.045280028930539</v>
+        <v>1.000158353937284</v>
       </c>
       <c r="F15">
-        <v>1.054099083867038</v>
+        <v>1.005403606066709</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038458422715017</v>
+        <v>1.043919742701197</v>
       </c>
       <c r="J15">
-        <v>1.043773063058248</v>
+        <v>1.012462283516991</v>
       </c>
       <c r="K15">
-        <v>1.041711939440815</v>
+        <v>1.008972249413614</v>
       </c>
       <c r="L15">
-        <v>1.048797449510106</v>
+        <v>1.015005373551407</v>
       </c>
       <c r="M15">
-        <v>1.05758489431122</v>
+        <v>1.020152967422286</v>
       </c>
       <c r="N15">
-        <v>1.018440042362859</v>
+        <v>1.007666697155018</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037974759910918</v>
+        <v>0.986511494198414</v>
       </c>
       <c r="D16">
-        <v>1.038800675996491</v>
+        <v>0.9973332025488495</v>
       </c>
       <c r="E16">
-        <v>1.045925109566202</v>
+        <v>1.00353073109962</v>
       </c>
       <c r="F16">
-        <v>1.054806472426758</v>
+        <v>1.009094576277932</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038621828246933</v>
+        <v>1.045213041147527</v>
       </c>
       <c r="J16">
-        <v>1.044277864386185</v>
+        <v>1.015192152986996</v>
       </c>
       <c r="K16">
-        <v>1.042228236737977</v>
+        <v>1.011713954487884</v>
       </c>
       <c r="L16">
-        <v>1.049327619220458</v>
+        <v>1.017800037139747</v>
       </c>
       <c r="M16">
-        <v>1.058178274655456</v>
+        <v>1.023265342977963</v>
       </c>
       <c r="N16">
-        <v>1.018609742527796</v>
+        <v>1.008591576982586</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038428870916637</v>
+        <v>0.9889879885329396</v>
       </c>
       <c r="D17">
-        <v>1.039197131124644</v>
+        <v>0.9993871007472126</v>
       </c>
       <c r="E17">
-        <v>1.04632974484669</v>
+        <v>1.005614667587348</v>
       </c>
       <c r="F17">
-        <v>1.05525018811862</v>
+        <v>1.011375123659127</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038723649025848</v>
+        <v>1.046006403885728</v>
       </c>
       <c r="J17">
-        <v>1.044594205141945</v>
+        <v>1.016876019867587</v>
       </c>
       <c r="K17">
-        <v>1.042551867112498</v>
+        <v>1.013405884848265</v>
       </c>
       <c r="L17">
-        <v>1.049659976697514</v>
+        <v>1.019524962356775</v>
       </c>
       <c r="M17">
-        <v>1.058550285845212</v>
+        <v>1.025186602651188</v>
       </c>
       <c r="N17">
-        <v>1.018716060277721</v>
+        <v>1.009162049091841</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038693695662799</v>
+        <v>0.9904182946443844</v>
       </c>
       <c r="D18">
-        <v>1.03942836571415</v>
+        <v>1.000574204198016</v>
       </c>
       <c r="E18">
-        <v>1.046565759605325</v>
+        <v>1.006819225054226</v>
       </c>
       <c r="F18">
-        <v>1.055508996551471</v>
+        <v>1.012693236140029</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038782794662157</v>
+        <v>1.046462876410938</v>
       </c>
       <c r="J18">
-        <v>1.044778610719032</v>
+        <v>1.017848239226582</v>
       </c>
       <c r="K18">
-        <v>1.042740552874267</v>
+        <v>1.014383033485132</v>
       </c>
       <c r="L18">
-        <v>1.049853761951955</v>
+        <v>1.020521278881163</v>
       </c>
       <c r="M18">
-        <v>1.058767201677963</v>
+        <v>1.026296406668303</v>
       </c>
       <c r="N18">
-        <v>1.018778026601828</v>
+        <v>1.009491413464274</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03878398554326</v>
+        <v>0.9909036307905438</v>
       </c>
       <c r="D19">
-        <v>1.039507208897384</v>
+        <v>1.000977160605147</v>
       </c>
       <c r="E19">
-        <v>1.046646234199933</v>
+        <v>1.007228121792368</v>
       </c>
       <c r="F19">
-        <v>1.055597242991021</v>
+        <v>1.013140665136495</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038802920296688</v>
+        <v>1.046617471134406</v>
       </c>
       <c r="J19">
-        <v>1.044841469516942</v>
+        <v>1.018178082337773</v>
       </c>
       <c r="K19">
-        <v>1.042804875898571</v>
+        <v>1.014714595283873</v>
       </c>
       <c r="L19">
-        <v>1.049919825318828</v>
+        <v>1.020859363618166</v>
       </c>
       <c r="M19">
-        <v>1.058841152187257</v>
+        <v>1.026673016008285</v>
       </c>
       <c r="N19">
-        <v>1.018799147548503</v>
+        <v>1.009603154209667</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038380154341733</v>
+        <v>0.9887237629765584</v>
       </c>
       <c r="D20">
-        <v>1.039154596383066</v>
+        <v>0.9991678725096538</v>
       </c>
       <c r="E20">
-        <v>1.046286331539503</v>
+        <v>1.005392223506678</v>
       </c>
       <c r="F20">
-        <v>1.055202581985815</v>
+        <v>1.011131702325413</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038712749931987</v>
+        <v>1.045921937009363</v>
       </c>
       <c r="J20">
-        <v>1.044560276222266</v>
+        <v>1.016696393299893</v>
       </c>
       <c r="K20">
-        <v>1.042517153160884</v>
+        <v>1.013225369674438</v>
       </c>
       <c r="L20">
-        <v>1.049624325466966</v>
+        <v>1.019340915235572</v>
       </c>
       <c r="M20">
-        <v>1.058510380019123</v>
+        <v>1.024981598115023</v>
       </c>
       <c r="N20">
-        <v>1.018704658254517</v>
+        <v>1.009101195017956</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037066662211723</v>
+        <v>0.9814664735174951</v>
       </c>
       <c r="D21">
-        <v>1.038008088023007</v>
+        <v>0.9931549812387911</v>
       </c>
       <c r="E21">
-        <v>1.045116225897561</v>
+        <v>0.9992920121750151</v>
       </c>
       <c r="F21">
-        <v>1.053919458232028</v>
+        <v>1.004455334514193</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038416720827477</v>
+        <v>1.043585689295132</v>
       </c>
       <c r="J21">
-        <v>1.043644787324046</v>
+        <v>1.011760043999388</v>
       </c>
       <c r="K21">
-        <v>1.041580768837222</v>
+        <v>1.008267205465292</v>
       </c>
       <c r="L21">
-        <v>1.048662764184582</v>
+        <v>1.01428681002839</v>
       </c>
       <c r="M21">
-        <v>1.057434159369503</v>
+        <v>1.019352787991805</v>
       </c>
       <c r="N21">
-        <v>1.018396911255703</v>
+        <v>1.007428773965259</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036240349975631</v>
+        <v>0.9767645686809265</v>
       </c>
       <c r="D22">
-        <v>1.037287127839744</v>
+        <v>0.9892680631074362</v>
       </c>
       <c r="E22">
-        <v>1.044380508574765</v>
+        <v>0.9953495203260907</v>
       </c>
       <c r="F22">
-        <v>1.053112669091582</v>
+        <v>1.000139555607419</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038228389543034</v>
+        <v>1.042056560239776</v>
       </c>
       <c r="J22">
-        <v>1.043068180270264</v>
+        <v>1.008559582575095</v>
       </c>
       <c r="K22">
-        <v>1.040991279084689</v>
+        <v>1.005055162402741</v>
       </c>
       <c r="L22">
-        <v>1.048057526808205</v>
+        <v>1.011013670512812</v>
       </c>
       <c r="M22">
-        <v>1.05675684159922</v>
+        <v>1.015708248380846</v>
       </c>
       <c r="N22">
-        <v>1.018202993289584</v>
+        <v>1.006344431636977</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036678438656171</v>
+        <v>0.9792708791302004</v>
       </c>
       <c r="D23">
-        <v>1.037669332705825</v>
+        <v>0.9913390935270513</v>
       </c>
       <c r="E23">
-        <v>1.044770528957219</v>
+        <v>0.9974500786847766</v>
       </c>
       <c r="F23">
-        <v>1.053540367275746</v>
+        <v>1.002439092659895</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038328436702887</v>
+        <v>1.042873076664449</v>
       </c>
       <c r="J23">
-        <v>1.043373945938074</v>
+        <v>1.010265746840477</v>
       </c>
       <c r="K23">
-        <v>1.041303849917729</v>
+        <v>1.006767258912878</v>
       </c>
       <c r="L23">
-        <v>1.048378437971846</v>
+        <v>1.012758232710478</v>
       </c>
       <c r="M23">
-        <v>1.057115962980214</v>
+        <v>1.017650689865676</v>
       </c>
       <c r="N23">
-        <v>1.018305833256347</v>
+        <v>1.006922494001685</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038402167420527</v>
+        <v>0.9888431988696762</v>
       </c>
       <c r="D24">
-        <v>1.039173816035497</v>
+        <v>0.999266965913844</v>
       </c>
       <c r="E24">
-        <v>1.046305948150645</v>
+        <v>1.005492770217682</v>
       </c>
       <c r="F24">
-        <v>1.055224093158242</v>
+        <v>1.011241731220542</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038717675519301</v>
+        <v>1.045960123331401</v>
       </c>
       <c r="J24">
-        <v>1.044575607582131</v>
+        <v>1.016777589492507</v>
       </c>
       <c r="K24">
-        <v>1.042532839155543</v>
+        <v>1.013306966692623</v>
       </c>
       <c r="L24">
-        <v>1.049640434949445</v>
+        <v>1.019424108427309</v>
       </c>
       <c r="M24">
-        <v>1.058528411966328</v>
+        <v>1.02507426423869</v>
       </c>
       <c r="N24">
-        <v>1.018709810483197</v>
+        <v>1.00912870278222</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040400483134435</v>
+        <v>0.9993991011199428</v>
       </c>
       <c r="D25">
-        <v>1.040919257391312</v>
+        <v>1.008042509537666</v>
       </c>
       <c r="E25">
-        <v>1.048087635078025</v>
+        <v>1.014398964466301</v>
       </c>
       <c r="F25">
-        <v>1.057177832698101</v>
+        <v>1.020986040360319</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039159767007103</v>
+        <v>1.049297482784708</v>
       </c>
       <c r="J25">
-        <v>1.045965732092436</v>
+        <v>1.023946704845422</v>
       </c>
       <c r="K25">
-        <v>1.043955784739794</v>
+        <v>1.020517245752794</v>
       </c>
       <c r="L25">
-        <v>1.051102042017098</v>
+        <v>1.026777792798202</v>
       </c>
       <c r="M25">
-        <v>1.06016465912204</v>
+        <v>1.03326708148921</v>
       </c>
       <c r="N25">
-        <v>1.019176759808525</v>
+        <v>1.011557150004154</v>
       </c>
     </row>
   </sheetData>
